--- a/biology/Mycologie/Moniliophthora/Moniliophthora.xlsx
+++ b/biology/Mycologie/Moniliophthora/Moniliophthora.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Moniliophthora est un genre de champignons originaires des régions tropicales et de la famille des Marasmiaceae.
 Ce genre comprend plusieurs espèces phytopathogènes, parmi lesquelles Moniliophthora roreri, responsable de la moniliose (l'espèce était initialement classée dans le genre Monilia) ou pourriture des cabosses du cacaoyer et Moniliophthora perniciosa, responsable de la maladie du balai de sorcière, également chez le cacaoyer.
@@ -512,9 +524,11 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Selon MycoBank                                            (1er février 2023)[1] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Selon MycoBank                                            (1er février 2023) :
 Moniliophthora aurantiaca Kropp &amp; Albee-Scott, 2012
 Moniliophthora brasiliensis (Arruda, G.F. Sepúlveda, R.N.G. Mill., M.A.Ferreira &amp; M.S.Felipe) Niveiro, Lodge &amp; Aime, 2020
 Moniliophthora canescens (Har.Takah.) Kerekes &amp; Desjardin, 2009
@@ -553,9 +567,11 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le genre Moniliophthora a été créé en 1978 par Harry Charles Evans (d), Joost Augustinus Stalpers (d), Robert Archibald Samson (d) et Gerald Leonard Benny (d). Son nom correct complet (avec auteur) est Moniliophthora H.C.Evans, Stalpers, Samson &amp; Benny, 1978[1].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le genre Moniliophthora a été créé en 1978 par Harry Charles Evans (d), Joost Augustinus Stalpers (d), Robert Archibald Samson (d) et Gerald Leonard Benny (d). Son nom correct complet (avec auteur) est Moniliophthora H.C.Evans, Stalpers, Samson &amp; Benny, 1978.
 </t>
         </is>
       </c>
